--- a/www/IndicatorsPerCountry/Switzerland_Heights_TerritorialRef_1946_2012_CCode_756.xlsx
+++ b/www/IndicatorsPerCountry/Switzerland_Heights_TerritorialRef_1946_2012_CCode_756.xlsx
@@ -93,13 +93,13 @@
     <t>Baten, Joerg and Mathias Blum (2015). Height. http://hdl.handle.net/10622/IAEKLA, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IAEKLA.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IAEKLA.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IAEKLA.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IAEKLA.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IAEKLA.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IAEKLA.bib</t>
   </si>
 </sst>
 </file>
